--- a/pred_ohlcv/54_21/2020-01-14 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 QTUM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-871.7244257000003</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2807.5761257</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2473.1469257</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2939.6819257</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3046.2246257</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3046.2246257</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2196.2246257</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2196.2246257</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-346.9976257000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1775.4608257</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2936.0384257</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3718.1878257</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3309.2431257</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4039.2878257</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4160.4445257</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4816.293725699999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4664.837625699999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-6736.7122257</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-7220.8290257</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-7345.6351257</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-7323.1307257</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-6635.0996257</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-6635.0996257</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-6625.0277257</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-6960.230725699999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-6958.215612349999</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-6568.554712349998</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-6568.554712349998</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-6563.442212349998</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-6868.799812349998</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-7686.432212349999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-8759.11391235</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-8385.479712349999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-8136.89761235</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-9299.182212349999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-9299.182212349999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-9046.665322449999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-8946.665322449999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-8946.665322449999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-8977.165322449999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-8999.072922449999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-8999.072922449999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-8999.072922449999</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-9192.27992245</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-9847.259922449999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-9577.292622449999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-9577.292622449999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-9772.85912245</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-10907.39982245</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-11052.09982245</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-11052.09982245</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-11052.09982245</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-10664.20792245</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-10943.31173457</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-10943.31173457</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-10943.31173457</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-10494.70973457</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-10494.70973457</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-10541.67983457</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-10792.71763457</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-10692.78383457</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-10926.67813457</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-10549.55253457</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-10759.71223457</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-10992.08913457</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-10991.01023457</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-10991.01023457</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-11218.01023457</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-11238.44063457</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-10983.44063457</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-13996.48273457</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-13904.91183457</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-17174.11433457</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-17174.11433457</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-16271.16383457</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-15514.57642605</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-15514.57642605</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-14883.47152605</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-14883.47152605</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-13919.45272605</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-13874.86902605</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-14392.87182605</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-14200.10122605</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-17591.70902605</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-17591.70902605</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-17590.02739134</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-16716.95819134</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-16712.27219133999</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-17417.57329134</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-18191.49719134</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-18241.49719134</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-18174.26509134</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-17570.75259133999</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-17570.75259133999</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-17705.75259133999</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-17505.75259133999</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-18705.81689133999</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-18704.23959133999</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-18704.23959133999</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-18804.23959133999</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-18804.23959133999</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-18804.23959133999</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-20804.23959133999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-20804.23959133999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-20804.23959133999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-23979.68459133999</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-23860.01759133999</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-21228.44059133999</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-24401.57559133999</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-24547.54979133999</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-27212.13979133999</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-28264.57129133999</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-28542.54629133999</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-28542.54629133999</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-26041.54629133999</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-26058.64629133999</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-24805.64629133999</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-28120.60219133999</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-28538.87529133999</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-25755.37069133999</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-25755.37069133999</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-25259.28579133999</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-27545.52759133999</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-27263.10569133998</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-27263.10569133998</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-25588.17649133999</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-25538.17649133999</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-26742.14269133998</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-27027.04229133999</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-27401.05139133998</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-27738.03189133999</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-27683.88569133999</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-27735.48569133999</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-25549.48399133998</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-23150.19069133998</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-23150.19069133998</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-23387.78669133998</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-24387.28669133998</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-25388.78679133999</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-24938.65984312999</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-25729.06474312999</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-25673.07484312999</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-25860.32784312999</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-25860.32784312999</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-26706.05914312999</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-26706.05914312999</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-26606.75914312999</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-27005.35074312999</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-27143.64274312999</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-26976.84334312999</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-26999.81134312999</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-26977.45164312999</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-27575.21664312999</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-27575.21664312999</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-27575.21664312999</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-28611.24654312999</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-34593.67744312999</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-34593.67744312999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-33513.50004312999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-33509.50004312999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-34509.50004312999</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-48656.87974312999</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-51436.65384312999</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-571980.36493483</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-572010.57503483</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-570409.59743483</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-570917.45743483</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-570921.04063483</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-570921.04063483</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-546525.93503483</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-547881.47033483</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-547879.47033483</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-547879.47033483</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-547879.47033483</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-547680.11313483</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-543749.1621120399</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-543684.1621120399</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-543740.1824120398</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-549606.0433120398</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-546173.5693120399</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-542698.8875120399</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-542698.8875120399</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-539181.0626120399</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-539181.0626120399</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-538976.2407120399</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-539729.1700810198</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-539641.1920810197</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-541036.4902810197</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-540814.6750810198</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-547668.0100810197</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-547637.2216810198</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-548396.6390810197</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-548396.6390810197</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-547185.6750810196</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-547182.8135810196</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-547851.3624810197</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-547620.8900810197</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-547658.7890810197</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-548167.3869810198</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-546898.3642810198</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-545127.8352810198</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-545287.2533810198</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-548982.2972761097</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-548976.7360358097</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-548976.7360358097</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 QTUM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-871.7244257000003</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2807.5761257</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2473.1469257</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2939.6819257</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3046.2246257</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3046.2246257</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2196.2246257</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2196.2246257</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-346.9976257000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1775.4608257</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2936.0384257</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3718.1878257</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3309.2431257</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4039.2878257</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4160.4445257</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4816.293725699999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4664.837625699999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3340.833125699999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-3340.833125699999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-3340.833125699999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-3258.433125699999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2350.572625699999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2389.693625699999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2663.849425699999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2724.664725699999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4004.064025699999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4771.307925699999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5475.817525699999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5272.435825699999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5272.435825699999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-5259.869125699999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5296.108125699999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-5342.108125699999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-5341.528625699999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-5341.828625699999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-5301.234725699999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-5301.234725699999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-5547.331125699999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5700.273125699999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-4885.509525699998</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-5418.474325699998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-5418.474325699998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-5418.474325699998</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-6736.7122257</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-7220.8290257</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-7345.6351257</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-7323.1307257</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-6635.0996257</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-6635.0996257</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-6625.0277257</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-6960.230725699999</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-6958.215612349999</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-6568.554712349998</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-6568.554712349998</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-6563.442212349998</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-6868.799812349998</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-7686.432212349999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-8759.11391235</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-8385.479712349999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-8136.89761235</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-9299.182212349999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-9299.182212349999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-9046.665322449999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-8946.665322449999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-8946.665322449999</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-8977.165322449999</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-8999.072922449999</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-8999.072922449999</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-8999.072922449999</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-9192.27992245</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-9847.259922449999</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-9577.292622449999</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-9577.292622449999</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-9772.85912245</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-10907.39982245</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-11052.09982245</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-11052.09982245</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-11052.09982245</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-10664.20792245</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-10943.31173457</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-10943.31173457</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-10943.31173457</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-10494.70973457</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-10494.70973457</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-10541.67983457</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-10792.71763457</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-10692.78383457</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-10926.67813457</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-10549.55253457</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-10759.71223457</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-10992.08913457</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-10991.01023457</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-10991.01023457</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-11218.01023457</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-11238.44063457</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-10983.44063457</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-13996.48273457</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-13904.91183457</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-17174.11433457</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-17174.11433457</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-16271.16383457</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-15514.57642605</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-15514.57642605</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-14883.47152605</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-14883.47152605</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-13919.45272605</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-13874.86902605</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-14392.87182605</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-14200.10122605</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-17591.70902605</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-17591.70902605</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-17590.02739134</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-16716.95819134</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-16712.27219133999</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-17417.57329134</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-18191.49719134</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-18241.49719134</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-18174.26509134</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-17570.75259133999</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-17570.75259133999</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-17705.75259133999</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-17505.75259133999</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-18705.81689133999</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-18704.23959133999</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-18704.23959133999</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-18804.23959133999</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-18804.23959133999</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-18804.23959133999</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-20804.23959133999</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-20804.23959133999</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-20804.23959133999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-23979.68459133999</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-23860.01759133999</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-21228.44059133999</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-24401.57559133999</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-24547.54979133999</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-27212.13979133999</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-28264.57129133999</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-28542.54629133999</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-28542.54629133999</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-26041.54629133999</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-26058.64629133999</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-24805.64629133999</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-28120.60219133999</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-28538.87529133999</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-25755.37069133999</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-25755.37069133999</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-25259.28579133999</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-27545.52759133999</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-27263.10569133998</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-27263.10569133998</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-25588.17649133999</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-25538.17649133999</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-26742.14269133998</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-27027.04229133999</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-27401.05139133998</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-27738.03189133999</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-27683.88569133999</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-27735.48569133999</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-25549.48399133998</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-23150.19069133998</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-23150.19069133998</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-23387.78669133998</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-24387.28669133998</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-25388.78679133999</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-24938.65984312999</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-25729.06474312999</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-25673.07484312999</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-25860.32784312999</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-25860.32784312999</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-26706.05914312999</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-26706.05914312999</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-26606.75914312999</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-27005.35074312999</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-27143.64274312999</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-26976.84334312999</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-26999.81134312999</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-26977.45164312999</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-27575.21664312999</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-27575.21664312999</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-27575.21664312999</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-28611.24654312999</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-34593.67744312999</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-34593.67744312999</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-33513.50004312999</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-33509.50004312999</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-34509.50004312999</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-48656.87974312999</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-51436.65384312999</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-571980.36493483</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-572010.57503483</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-570409.59743483</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-570917.45743483</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-570921.04063483</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-570921.04063483</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-546525.93503483</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-547881.47033483</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-547879.47033483</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-547879.47033483</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-547879.47033483</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-547680.11313483</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-543749.1621120399</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-543684.1621120399</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-543740.1824120398</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-549606.0433120398</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-539181.0626120399</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-539181.0626120399</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-538976.2407120399</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-539729.1700810198</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-539641.1920810197</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-541036.4902810197</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-540814.6750810198</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-547668.0100810197</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-547637.2216810198</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-548396.6390810197</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-548396.6390810197</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-547185.6750810196</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-547182.8135810196</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-547851.3624810197</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-547620.8900810197</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-547658.7890810197</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-548167.3869810198</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-546898.3642810198</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-545127.8352810198</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-545287.2533810198</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
